--- a/biology/Botanique/Arundel_Gardens/Arundel_Gardens.xlsx
+++ b/biology/Botanique/Arundel_Gardens/Arundel_Gardens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arundel Gardens est une rue et un carré de jardin communal à Notting Hill, à Londres, l'une des sept rues entre Ladbroke Grove et Kensington Park Road, dont cinq partagent un jardin commun entre elles. Il a été construit dans les années 1860, vers les étapes ultérieures du développement du Ladbroke Estate, auparavant dans l'arrière-pays rural de Londres [1]. Parmi les anciens résidents de la rue, notons le psychologue Charles Samuel Myers, qui a inventé le terme d'obusite, et le chimiste Sir William Ramsay. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arundel Gardens est une rue et un carré de jardin communal à Notting Hill, à Londres, l'une des sept rues entre Ladbroke Grove et Kensington Park Road, dont cinq partagent un jardin commun entre elles. Il a été construit dans les années 1860, vers les étapes ultérieures du développement du Ladbroke Estate, auparavant dans l'arrière-pays rural de Londres . Parmi les anciens résidents de la rue, notons le psychologue Charles Samuel Myers, qui a inventé le terme d'obusite, et le chimiste Sir William Ramsay. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Guerres mondiales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant la Première Guerre mondiale, les jardins d'Arundel ont été touchés par une bombe d'un Zeppelin. Une foule en colère a attaqué l'Electric Cinema voisin, croyant que son manager d'origine allemande signalait aux attaquants du Zeppelin depuis le toit du cinéma . 
-Pendant la Seconde Guerre mondiale, les jardins d'Arundel ont de nouveau souffert des bombardements. Une résidente locale, Vere Hodgson, a enregistré dans son journal en 1940: "Je suis allé voir les maisons de Lansdowne Road [à côté des jardins d'Arundel] qui l'ont attrapé. Juste des tas de décombres… juste au coin de Ladbroke Grove " [2]. 
+Pendant la Seconde Guerre mondiale, les jardins d'Arundel ont de nouveau souffert des bombardements. Une résidente locale, Vere Hodgson, a enregistré dans son journal en 1940: "Je suis allé voir les maisons de Lansdowne Road [à côté des jardins d'Arundel] qui l'ont attrapé. Juste des tas de décombres… juste au coin de Ladbroke Grove " . 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Arundel Gardens aujourd'hui</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une vue des jardins d'Arundel est montrée dans le film de 1999 Coup de foudre à Notting Hill. 
 L'itinéraire du carnaval de Notting Hill passe le long d'Arundel Gardens. 
@@ -575,11 +591,13 @@
           <t>Résidents notables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Charles Samuel Myers (1873-1946), psychologue, a vécu au 27 Arundel Gardens quand il était enfant. Au recensement de 1881, il est répertorié comme un écolier de 8 ans vivant avec ses parents, quatre frères et quatre serviteurs[3]. Myers a inventé le terme choc d'obusite et a été cofondateur de la British Psychological Society et de l'Institut national de psychologie industrielle.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Charles Samuel Myers (1873-1946), psychologue, a vécu au 27 Arundel Gardens quand il était enfant. Au recensement de 1881, il est répertorié comme un écolier de 8 ans vivant avec ses parents, quatre frères et quatre serviteurs. Myers a inventé le terme choc d'obusite et a été cofondateur de la British Psychological Society et de l'Institut national de psychologie industrielle.
 Sir William Ramsay (1852-1916), a vécu au 12 Arundel Gardens de 1887 à 1902. Il a été professeur de chimie à l'University College de Londres et découvreur des gaz nobles Hélium, Néon, Argon, Krypton et Xénon, pour lesquels il a remporté le prix Nobel de chimie en 1904 (le premier scientifique britannique à être honoré de cette manière).
-Le producteur de disques Joe Meek y a vécu à la fin des années 1950[4].</t>
+Le producteur de disques Joe Meek y a vécu à la fin des années 1950.</t>
         </is>
       </c>
     </row>
@@ -607,7 +625,9 @@
           <t>Remarques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Page at Ladbroke Association website Retrieved 7 February 2010
